--- a/ゲーム制作Ⅲ/ゲーム制作演習Ⅲ　福島慶悟.xlsx
+++ b/ゲーム制作Ⅲ/ゲーム制作演習Ⅲ　福島慶悟.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokek\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokek\OneDrive\デスクトップ\ゲームプログラミング\14Fukushima\ゲーム制作Ⅲ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -687,10 +687,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ｌキー：ガード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ｊキー：スキル使用</t>
     <rPh sb="7" eb="9">
       <t>シヨウ</t>
@@ -728,13 +724,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スペースキー：攻撃</t>
-    <rPh sb="7" eb="9">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>敵の攻撃ににあたるとダメージを受ける。</t>
     <rPh sb="2" eb="4">
       <t>コウゲキ</t>
@@ -934,6 +923,20 @@
     <rPh sb="6" eb="8">
       <t>ガゾウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウス左クリック：攻撃</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｌキー：ガード</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1896,7 +1899,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -1909,7 +1912,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G2" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2194,8 +2197,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2292,21 +2295,21 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F11" s="9"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F12" s="9"/>
       <c r="H12" s="11"/>
@@ -2318,13 +2321,13 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -2336,7 +2339,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="9"/>
       <c r="I17" s="11"/>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="9"/>
       <c r="I18" s="11"/>
@@ -2352,7 +2355,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="6"/>
       <c r="G19" s="9"/>
@@ -2362,7 +2365,7 @@
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G20" s="9"/>
       <c r="I20" s="11"/>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="9"/>
       <c r="I21" s="11"/>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -2397,7 +2400,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G25" s="9"/>
       <c r="K25" s="11"/>
@@ -2419,7 +2422,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="11"/>
@@ -2440,14 +2443,14 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="11"/>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1"/>
       <c r="H36" s="9"/>
@@ -2476,7 +2479,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="11"/>
@@ -2490,7 +2493,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="11"/>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="13"/>
@@ -2519,48 +2522,48 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K51" s="2"/>
     </row>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="54" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">

--- a/ゲーム制作Ⅲ/ゲーム制作演習Ⅲ　福島慶悟.xlsx
+++ b/ゲーム制作Ⅲ/ゲーム制作演習Ⅲ　福島慶悟.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>スケジュール</t>
   </si>
@@ -114,15 +114,6 @@
   </si>
   <si>
     <t>３．システムの仕様</t>
-  </si>
-  <si>
-    <t>タイトル画面</t>
-  </si>
-  <si>
-    <t>タイトル画面、メニューの表示</t>
-  </si>
-  <si>
-    <t>ゲーム結果の表示</t>
   </si>
   <si>
     <t>競技性を取り入れる事（得点やクリア時間など、何かで競えること）</t>
@@ -680,20 +671,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ｉキー：アイテム使用</t>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ｊキー：スキル使用</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>剣を振るモーション</t>
     <rPh sb="0" eb="1">
       <t>ケン</t>
@@ -756,16 +733,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>剣での攻撃</t>
-    <rPh sb="0" eb="1">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3秒のモーション</t>
     <rPh sb="1" eb="2">
       <t>ビョウ</t>
@@ -780,62 +747,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スキル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主にバフ・デバフ</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エフェクト・バフ・デバフアイコンの表示・スキルゲージの表示　増減の見せ方</t>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ゾウゲン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>平坦で障害物がない見晴らしの良いステージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>残アイテム数</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤーの回復アイテム数が表示される</t>
-    <rPh sb="6" eb="8">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スキルゲージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤーのスキルゲージの量が確認できる</t>
-    <rPh sb="13" eb="14">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -912,10 +824,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>リザルト画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>参考イメージ画像</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
@@ -936,7 +844,234 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ｌキー：ガード</t>
+    <t>スペースキー：ガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中止</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ｉキー：アイテム使用</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ｊキー：スキル使用</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こぶしでの攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>エフェクト・バフ・デバフアイコンの表示・スキルゲージの表示　増減の見せ方</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主にバフ・デバフ</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スキル</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイヤーのスキルゲージの量が確認できる</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>残アイテム数</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイヤーの回復アイテム数が表示される</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タイトル画面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タイトル画面、メニューの表示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ゲーム結果の表示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>リザルト画面</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -944,7 +1079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1002,8 +1137,49 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,6 +1198,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1032,10 +1213,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1046,12 +1230,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="アクセント 2" xfId="1" builtinId="33"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1796,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,7 +2001,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1814,7 +2009,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1822,7 +2017,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1830,7 +2025,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1838,10 +2033,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1857,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1912,7 +2107,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G2" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1920,7 +2115,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1944,7 +2139,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -1955,7 +2150,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="4"/>
@@ -1965,7 +2160,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
@@ -1976,7 +2171,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
@@ -1987,7 +2182,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
@@ -2007,7 +2202,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
@@ -2018,7 +2213,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
@@ -2029,7 +2224,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
@@ -2040,7 +2235,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
@@ -2051,7 +2246,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -2070,7 +2265,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
@@ -2081,7 +2276,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
@@ -2093,7 +2288,7 @@
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
@@ -2129,17 +2324,17 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,13 +2342,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -2162,12 +2357,12 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2197,8 +2392,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2264,55 +2459,56 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="G10" s="11"/>
+    <row r="9" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -2321,73 +2517,65 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -2396,19 +2584,19 @@
         <v>24</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="G26" s="9"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2422,81 +2610,81 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H29" s="9"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="9"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H33" s="9"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="9"/>
-      <c r="I34" s="11"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="9"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H37" s="9"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="9"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -2510,10 +2698,10 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="13"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -2522,72 +2710,68 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="6" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C49" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B50" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C51" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M55" s="2"/>
+      <c r="B52" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C53" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C55" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
